--- a/Proyectos/2016/1/P1461 -RNCFAC, Delfina Abitia_AG/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2016/1/P1461 -RNCFAC, Delfina Abitia_AG/Calidad/No_conformidades.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANABEL GONZALEZ\Documents\SOSQTP\Proyectos\2016\1\P1461 -RNCFAC, Delfina Abitia_AG\Calidad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
@@ -70,11 +75,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,6 +296,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -337,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,9 +382,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,6 +417,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -578,14 +593,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875"/>
     <col min="2" max="2" width="42"/>
@@ -598,7 +613,7 @@
     <col min="1024" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" customHeight="1">
+    <row r="1" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -609,7 +624,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -618,7 +633,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -652,7 +667,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -675,7 +690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -694,7 +709,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -705,7 +720,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -716,7 +731,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -727,7 +742,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -738,7 +753,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -749,7 +764,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -760,7 +775,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -771,7 +786,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -782,7 +797,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -793,7 +808,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -804,7 +819,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -815,7 +830,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -826,7 +841,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -837,7 +852,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -848,7 +863,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -859,7 +874,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -870,7 +885,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -881,7 +896,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -892,7 +907,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -903,7 +918,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>

--- a/Proyectos/2016/1/P1461 -RNCFAC, Delfina Abitia_AG/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2016/1/P1461 -RNCFAC, Delfina Abitia_AG/Calidad/No_conformidades.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Alma yesenia</t>
-  </si>
-  <si>
-    <t>En proceso</t>
   </si>
 </sst>
 </file>
@@ -597,7 +594,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +702,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3"/>
     </row>
